--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadiq\Documents\GitHub\MiniKart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>in dispatcher add mvc:resources</t>
+  </si>
+  <si>
+    <t>org.springframework.beans.factory.xml.XmlBeanDefinitionStoreException</t>
+  </si>
+  <si>
+    <t>org.springframework.beans.factory.CannotLoadBeanClassException</t>
+  </si>
+  <si>
+    <t>java.lang.ClassNotFoundException</t>
+  </si>
+  <si>
+    <t>log4j:WARN No appenders could be found for logger (org.springframework.web.context.ContextLoader).</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/1266139/log4jwarn-no-appenders-could-be-found-for-logger-in-web-xml</t>
+  </si>
+  <si>
+    <t>schema locations were made proper.</t>
   </si>
 </sst>
 </file>
@@ -368,19 +386,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="100.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -396,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -404,12 +422,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>schema locations were made proper.</t>
+  </si>
+  <si>
+    <t>org.springframework.beans.NotReadablePropertyException</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,6 +459,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>org.springframework.beans.NotReadablePropertyException</t>
+  </si>
+  <si>
+    <t>java.lang.IllegalArgumentException: attempt to create saveOrUpdate event with null entity</t>
+  </si>
+  <si>
+    <t>org.h2.jdbc.JdbcSQLException: Referential integrity constraint violation: "FK98F1UXW8AUXHFL9B9EH5YU1IC: PUBLIC.CART FOREIGN KEY(USERID) REFERENCES PUBLIC.USERDETAILS(USERID) (0)";</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,6 +470,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>org.h2.jdbc.JdbcSQLException: Referential integrity constraint violation: "FK98F1UXW8AUXHFL9B9EH5YU1IC: PUBLIC.CART FOREIGN KEY(USERID) REFERENCES PUBLIC.USERDETAILS(USERID) (0)";</t>
+  </si>
+  <si>
+    <t>org.hibernate.MappingException: Unknown entity: java.lang.Integer</t>
+  </si>
+  <si>
+    <t>Product Id was given in delete instead of Product object</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,6 +486,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
   <si>
-    <t>http://stackoverflow.com/questions/22756153/the-superclass-javax-servlet-http-httpservlet-was-not-found-on-the-java-build</t>
+    <t>Dependencies were missing</t>
   </si>
   <si>
     <t>Several ports (8005, 8080, 8009) required by Tomcat v9.0 Server at localhost are already in use. The server may already be running in another process, or a system process may be using the port. To start this server you will need to stop the other process or change the port number(s).</t>
@@ -50,10 +50,16 @@
     <t>in dispatcher add mvc:resources</t>
   </si>
   <si>
+    <t>org.springframework.beans.factory.CannotLoadBeanClassException</t>
+  </si>
+  <si>
     <t>org.springframework.beans.factory.xml.XmlBeanDefinitionStoreException</t>
   </si>
   <si>
-    <t>org.springframework.beans.factory.CannotLoadBeanClassException</t>
+    <t>org.hibernate.AnnotationException</t>
+  </si>
+  <si>
+    <t>@ID was missing in model class</t>
   </si>
   <si>
     <t>java.lang.ClassNotFoundException</t>
@@ -65,9 +71,6 @@
     <t>http://stackoverflow.com/questions/1266139/log4jwarn-no-appenders-could-be-found-for-logger-in-web-xml</t>
   </si>
   <si>
-    <t>schema locations were made proper.</t>
-  </si>
-  <si>
     <t>org.springframework.beans.NotReadablePropertyException</t>
   </si>
   <si>
@@ -81,19 +84,118 @@
   </si>
   <si>
     <t>Product Id was given in delete instead of Product object</t>
+  </si>
+  <si>
+    <t>org.springframework.beans.factory.UnsatisfiedDependencyException</t>
+  </si>
+  <si>
+    <t>Missing Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database taking only 1 value </t>
+  </si>
+  <si>
+    <t>Generated value was not set</t>
+  </si>
+  <si>
+    <t>neither-bindingresult-nor-plain-target-object-for-bean-name-available-as-request</t>
+  </si>
+  <si>
+    <t>Model attribute was missing in jsp form</t>
+  </si>
+  <si>
+    <t>javax.el.PropertyNotFoundException: Property 'Description' not found on type com.model.Category</t>
+  </si>
+  <si>
+    <t>category prefix was missing</t>
+  </si>
+  <si>
+    <t>Uncaught Error: [$injector:modulerr] http://errors.angularjs.org/1.5.8/$injector/modulerr?p0=getStringCategory&amp;p…2Flocalhost%3A8080%2FMiniKart%2Fresources%2Fjs%2Fangular.min.js%3A20%3A390)</t>
+  </si>
+  <si>
+    <t>Model attribute was written incorrectly</t>
+  </si>
+  <si>
+    <t>unreachable code</t>
+  </si>
+  <si>
+    <t>Return Statement was not in last</t>
+  </si>
+  <si>
+    <t>java.lang.IndexOutOfBoundsException: Index: 0, Size: 0</t>
+  </si>
+  <si>
+    <t>itemlist was not specified in jsp</t>
+  </si>
+  <si>
+    <t>org.springframework.web.method.annotation.MethodArgumentTypeMismatchException</t>
+  </si>
+  <si>
+    <t>org.hibernate.MappingException:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.hibernate.MappingException: Repeated column in mapping for entity: com.model.UserDetails column: userId (should be mapped with insert="false" update="false")</t>
+  </si>
+  <si>
+    <t>missing insertable=null</t>
+  </si>
+  <si>
+    <t>javax.servlet.ServletException: java.lang.StackOverflowError</t>
+  </si>
+  <si>
+    <t>Loop page call removed</t>
+  </si>
+  <si>
+    <t>org.hibernate.LazyInitializationException:</t>
+  </si>
+  <si>
+    <t>Eager Needed</t>
+  </si>
+  <si>
+    <t>java.lang.ClassNotFoundException: org.apache.jsp.WEB_002dINF.jsp.Home_jsp</t>
+  </si>
+  <si>
+    <t>Header file not readable</t>
+  </si>
+  <si>
+    <t>Market place error in neon</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/39698357/disable-marketplace-from-eclipse</t>
+  </si>
+  <si>
+    <t>Could not retrieve ID</t>
+  </si>
+  <si>
+    <t>Wrong ID being Inserted</t>
+  </si>
+  <si>
+    <t>Request processing failed; nested exception is org.springframework.orm.hibernate5.HibernateOptimisticLockingFailureException: Batch update returned unexpected row count from update [0]; actual row count: 0; expected: 1; nested exception is org.hibernate.StaleStateException: Batch update returned unexpected row count from update [0]; actual row count: 0; expected: 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +218,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,100 +511,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Request processing failed; nested exception is org.springframework.orm.hibernate5.HibernateOptimisticLockingFailureException: Batch update returned unexpected row count from update [0]; actual row count: 0; expected: 1; nested exception is org.hibernate.StaleStateException: Batch update returned unexpected row count from update [0]; actual row count: 0; expected: 1</t>
+  </si>
+  <si>
+    <t>getting null when no info was added in product specificiation</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -735,6 +738,9 @@
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/errorlog.xlsx
+++ b/errorlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>The superclass "javax.servlet.http.HttpServlet" was not found on the Java Build Path</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>getting null when no info was added in product specificiation</t>
+  </si>
+  <si>
+    <t>Wrong Name Given</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +589,9 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
